--- a/SPPSApi/Doc/Template/FS0603_Child_gq.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Child_gq.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2.Project file\1.Project\API\SPPSApi\Doc\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D171D-48C6-4BBF-8227-01B445E42F7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,25 +81,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -114,14 +108,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -130,7 +124,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -187,10 +181,10 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -207,10 +201,11 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{FADE21C6-5AB8-4BA6-8B9D-AFF67AF9C1B5}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -226,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -268,12 +263,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -303,12 +298,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -480,29 +475,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="6" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.625" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="13" customWidth="1"/>
+    <col min="2" max="4" width="10.125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="6"/>
+    <col min="10" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -543,7 +540,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{959B6287-22C7-4B65-B8CC-933F64C36997}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$4</xm:f>
           </x14:formula1>
@@ -556,34 +553,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1500AD-85D6-4FDA-8ACD-A4319C2C0FF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
